--- a/Take Home/Tables/1__Selected Lags All Criteria_a110.95_T200.xlsx
+++ b/Take Home/Tables/1__Selected Lags All Criteria_a110.95_T200.xlsx
@@ -468,25 +468,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -496,25 +496,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="C3" t="n">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
